--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-smoking-status</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-smoking-status</t>
+    <t>http://fhir.org/de/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>VS Smoking Status</t>
+    <t>Smoking Status Types</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,16 +54,19 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -325,66 +328,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -406,58 +411,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-smoking-status</t>
+    <t>http://hl7.org/de/ValueSet/vs-smoking-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses ValueSet enthält Snomed-Codes für den Raucherstatus.</t>
+    <t>Dieses Valueset enthält SNOMED-Codes, um das 'Rauchverhalten' zu beschreiben.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-smoking-status.xlsx
+++ b/output/ValueSet-vs-smoking-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
